--- a/dtpu_configurations/only_integer32/100mhz/mxu_3x3/timing.xlsx
+++ b/dtpu_configurations/only_integer32/100mhz/mxu_3x3/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.026732394471764565</v>
+        <v>0.42884984612464905</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.024011904373764992</v>
+        <v>0.02734512649476528</v>
       </c>
     </row>
   </sheetData>
